--- a/wwwroot/Reportes/ReporteAlquileresPropietario1002960089.xlsx
+++ b/wwwroot/Reportes/ReporteAlquileresPropietario1002960089.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -50,15 +50,33 @@
     <t>CALIFICACIÓN</t>
   </si>
   <si>
-    <t>10/06/2024</t>
-  </si>
-  <si>
-    <t>15/06/2024</t>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
   </si>
   <si>
     <t>Moto Yamaha FZ</t>
   </si>
   <si>
+    <t>Montería, Córdoba</t>
+  </si>
+  <si>
+    <t>Gilberto Gómez</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Pagado</t>
+  </si>
+  <si>
+    <t>10/04/2024</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
     <t>Florencia, Caquetá</t>
   </si>
   <si>
@@ -68,31 +86,10 @@
     <t>Sin Iniciar</t>
   </si>
   <si>
-    <t>Sin Pagar</t>
-  </si>
-  <si>
-    <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>21/05/2024</t>
-  </si>
-  <si>
-    <t>Montería, Córdoba</t>
-  </si>
-  <si>
-    <t>10/05/2024</t>
-  </si>
-  <si>
-    <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>Gilberto Gómez</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>Pagado</t>
+    <t>20/03/2024</t>
+  </si>
+  <si>
+    <t>21/03/2024</t>
   </si>
   <si>
     <t>24/02/2024</t>
@@ -270,16 +267,16 @@
         <v>18</v>
       </c>
       <c r="I2" s="2">
-        <v>120000</v>
+        <v>370000</v>
       </c>
       <c r="J2" s="2">
-        <v>18000</v>
+        <v>55500</v>
       </c>
       <c r="K2" s="0">
-        <v>102000</v>
+        <v>314500</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -299,25 +296,25 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="J3" s="2">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="K3" s="0">
-        <v>76500</v>
+        <v>102000</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -325,34 +322,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2">
-        <v>370000</v>
+        <v>90000</v>
       </c>
       <c r="J4" s="2">
-        <v>55500</v>
+        <v>13500</v>
       </c>
       <c r="K4" s="0">
-        <v>314500</v>
+        <v>76500</v>
       </c>
       <c r="L4" s="0">
         <v>4</v>
@@ -363,25 +360,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2">
         <v>400000</v>
@@ -401,25 +398,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2">
         <v>215000</v>
@@ -439,25 +436,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
         <v>390000</v>
@@ -477,25 +474,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2">
         <v>725000</v>
